--- a/mini-game/Assets/Resources/doc/position.xlsx
+++ b/mini-game/Assets/Resources/doc/position.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>关卡id</t>
   </si>
@@ -38,6 +38,15 @@
   <si>
     <t>1103, 1104, 1104, 1101, 1102, 1105</t>
   </si>
+  <si>
+    <t>1108, 1104, 1106, 1107, 1102, 1102</t>
+  </si>
+  <si>
+    <t>1106,1104, 1106, 1104, 1107, 1105, 1109, 1108, 1107</t>
+  </si>
+  <si>
+    <t>1102, 1106, 1112, 1107, 1107, 1108, 1102, 1106, 1105, 1109</t>
+  </si>
 </sst>
 </file>
 
@@ -82,8 +91,62 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -91,6 +154,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -98,7 +168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,28 +182,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -142,14 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -158,29 +198,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -189,7 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,30 +230,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,43 +250,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,19 +382,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,115 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,11 +446,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,6 +472,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -478,60 +541,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,13 +1054,13 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="2" max="2" width="57.125" customWidth="1"/>
     <col min="3" max="3" width="15.125"/>
   </cols>
   <sheetData>
@@ -1117,7 +1126,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>6006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>6007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" s="1"/>
     </row>
   </sheetData>

--- a/mini-game/Assets/Resources/doc/position.xlsx
+++ b/mini-game/Assets/Resources/doc/position.xlsx
@@ -30,22 +30,22 @@
     <t>monster_id</t>
   </si>
   <si>
-    <t>1101, 1103, 1101</t>
+    <t>1101,1103,1101</t>
   </si>
   <si>
-    <t>1101, 1101, 1102, 1103</t>
+    <t>1101,1101,1102,1103</t>
   </si>
   <si>
-    <t>1103, 1104, 1104, 1101, 1102, 1105</t>
+    <t>1103,1104,1104,1101,1102,1105</t>
   </si>
   <si>
-    <t>1108, 1104, 1106, 1107, 1102, 1102</t>
+    <t>1108,1104,1106,1107,1102,1102</t>
   </si>
   <si>
-    <t>1106,1104, 1106, 1104, 1107, 1105, 1109, 1108, 1107</t>
+    <t>1106,1104,1106,1104,1107,1105,1109,1108,1107</t>
   </si>
   <si>
-    <t>1102, 1106, 1112, 1107, 1107, 1108, 1102, 1106, 1105, 1109</t>
+    <t>1102,1106,1112,1107,1107,1108,1102,1106,1105,1109</t>
   </si>
 </sst>
 </file>
@@ -53,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -92,23 +92,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,53 +113,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,17 +181,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,22 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,13 +230,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,43 +250,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,13 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,73 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,43 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,47 +447,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,11 +470,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,8 +495,49 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,137 +561,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,6 +701,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,7 +1057,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1106,7 +1109,7 @@
       <c r="A3" s="6">
         <v>6001</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1114,7 +1117,7 @@
       <c r="A4">
         <v>6002</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1122,7 +1125,7 @@
       <c r="A5">
         <v>6003</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1130,7 +1133,7 @@
       <c r="A6">
         <v>6004</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1138,7 +1141,7 @@
       <c r="A7">
         <v>6005</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1146,7 +1149,7 @@
       <c r="A8">
         <v>6006</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1154,7 +1157,7 @@
       <c r="A9">
         <v>6007</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1"/>

--- a/mini-game/Assets/Resources/doc/position.xlsx
+++ b/mini-game/Assets/Resources/doc/position.xlsx
@@ -36,7 +36,7 @@
     <t>1101,1101,1102,1103</t>
   </si>
   <si>
-    <t>1103,1104,1104,1101,1102,1105</t>
+    <t>1103,1104,1104,1101,1102,1101,1105</t>
   </si>
   <si>
     <t>1108,1104,1106,1107,1102,1102</t>
@@ -53,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -98,8 +98,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,115 +205,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,25 +250,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,25 +394,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,127 +418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,24 +446,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,7 +483,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,8 +506,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,32 +541,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -549,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/mini-game/Assets/Resources/doc/position.xlsx
+++ b/mini-game/Assets/Resources/doc/position.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>关卡id</t>
   </si>
@@ -36,16 +36,19 @@
     <t>1101,1101,1102,1103</t>
   </si>
   <si>
-    <t>1103,1104,1104,1101,1102,1101,1105</t>
+    <t>1103,1104,1101,1105,1102</t>
   </si>
   <si>
-    <t>1108,1104,1106,1107,1102,1102</t>
+    <t>1102,1104,1106,1108,1107,1102</t>
+  </si>
+  <si>
+    <t>1106,1107,1111,1108,1104,1105</t>
+  </si>
+  <si>
+    <t>1102,1106,1112,1107,1108,1102,1106,1105,1109</t>
   </si>
   <si>
     <t>1106,1104,1106,1104,1107,1105,1109,1108,1107</t>
-  </si>
-  <si>
-    <t>1102,1106,1112,1107,1107,1108,1102,1106,1105,1109</t>
   </si>
 </sst>
 </file>
@@ -53,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -98,23 +101,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,6 +153,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -167,6 +192,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -174,54 +207,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,19 +253,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,157 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,20 +449,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,15 +471,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -499,6 +482,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +521,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -549,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,133 +564,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,7 +1161,7 @@
         <v>6007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1"/>
     </row>

--- a/mini-game/Assets/Resources/doc/position.xlsx
+++ b/mini-game/Assets/Resources/doc/position.xlsx
@@ -42,13 +42,13 @@
     <t>1102,1104,1106,1108,1107,1102</t>
   </si>
   <si>
-    <t>1106,1107,1111,1108,1104,1105</t>
+    <t>1106,1107,1112,1109,1104,1105</t>
   </si>
   <si>
-    <t>1102,1106,1112,1107,1108,1102,1106,1105,1109</t>
+    <t>1102,1106,1113,1107,1108,1102,1106,1105,1109</t>
   </si>
   <si>
-    <t>1106,1104,1106,1104,1107,1105,1109,1108,1107</t>
+    <t>1102,1104,1106,1108,1107,1105,1114,1109,1106</t>
   </si>
 </sst>
 </file>
@@ -56,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -95,6 +95,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -102,14 +117,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,7 +170,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +178,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,6 +193,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -162,77 +232,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,55 +253,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,115 +421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,65 +444,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,6 +471,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -544,6 +529,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +564,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/mini-game/Assets/Resources/doc/position.xlsx
+++ b/mini-game/Assets/Resources/doc/position.xlsx
@@ -33,13 +33,13 @@
     <t>1101,1103,1101</t>
   </si>
   <si>
-    <t>1101,1101,1102,1103</t>
+    <t>1105,1102,1101,1103</t>
   </si>
   <si>
-    <t>1103,1104,1101,1105,1102</t>
+    <t>1104,1103,1102,1108,1105</t>
   </si>
   <si>
-    <t>1102,1104,1106,1108,1107,1102</t>
+    <t>1107,1106,1104,1110,1106,1104</t>
   </si>
   <si>
     <t>1106,1107,1112,1109,1104,1105</t>
@@ -56,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -95,29 +95,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,23 +185,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,6 +200,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,55 +231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,13 +253,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,169 +421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,54 +447,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -544,6 +500,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +564,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
